--- a/output/1Y_P19_KFSDIV.xlsx
+++ b/output/1Y_P19_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.6663</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.701</v>
       </c>
       <c r="C3" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E3" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="F3" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="H3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0024</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.8109</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E4" s="1">
-        <v>1362.0611</v>
+        <v>1359.3347</v>
       </c>
       <c r="F4" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="H4" s="1">
-        <v>18811.2891</v>
+        <v>18736.1185</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18811.2891</v>
+        <v>18736.1185</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6836</v>
+        <v>14.7131</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9386.3483</v>
+        <v>-9387.575999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0605</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>13.9322</v>
       </c>
       <c r="C5" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D5" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E5" s="1">
-        <v>2086.1268</v>
+        <v>2081.9512</v>
       </c>
       <c r="F5" s="1">
-        <v>722.6557</v>
+        <v>721.2016</v>
       </c>
       <c r="H5" s="1">
-        <v>29064.3363</v>
+        <v>28948.0739</v>
       </c>
       <c r="I5" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="J5" s="1">
-        <v>29677.988</v>
+        <v>29560.498</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.3807</v>
+        <v>14.4096</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10068.1835</v>
+        <v>-10068.0471</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0301</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.5846</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E6" s="1">
-        <v>2808.7825</v>
+        <v>2803.1528</v>
       </c>
       <c r="F6" s="1">
-        <v>800.04</v>
+        <v>798.4304</v>
       </c>
       <c r="H6" s="1">
-        <v>35347.4045</v>
+        <v>35205.9177</v>
       </c>
       <c r="I6" s="1">
-        <v>545.4682</v>
+        <v>544.3769</v>
       </c>
       <c r="J6" s="1">
-        <v>35892.8727</v>
+        <v>35750.2947</v>
       </c>
       <c r="K6" s="1">
-        <v>40068.1835</v>
+        <v>40068.0471</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2653</v>
+        <v>14.2939</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10068.1835</v>
+        <v>-10068.0471</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0954</v>
+        <v>-0.0963</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>12.2867</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E7" s="1">
-        <v>3608.8225</v>
+        <v>3601.5832</v>
       </c>
       <c r="F7" s="1">
-        <v>819.4376</v>
+        <v>817.7891</v>
       </c>
       <c r="H7" s="1">
-        <v>44340.5198</v>
+        <v>44162.9733</v>
       </c>
       <c r="I7" s="1">
-        <v>477.2847</v>
+        <v>476.3298</v>
       </c>
       <c r="J7" s="1">
-        <v>44817.8045</v>
+        <v>44639.3031</v>
       </c>
       <c r="K7" s="1">
-        <v>50136.367</v>
+        <v>50136.0942</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8927</v>
+        <v>13.9206</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1263.9521</v>
+        <v>1261.4188</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8804.231400000001</v>
+        <v>-8806.6283</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0234</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.0645</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E8" s="1">
-        <v>4428.2601</v>
+        <v>4419.3723</v>
       </c>
       <c r="F8" s="1">
-        <v>786.7765000000001</v>
+        <v>785.1592000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>57853.004</v>
+        <v>57621.5439</v>
       </c>
       <c r="I8" s="1">
-        <v>1673.0533</v>
+        <v>1669.7015</v>
       </c>
       <c r="J8" s="1">
-        <v>59526.0573</v>
+        <v>59291.2454</v>
       </c>
       <c r="K8" s="1">
-        <v>60204.5506</v>
+        <v>60204.1413</v>
       </c>
       <c r="L8" s="1">
-        <v>13.5955</v>
+        <v>13.6228</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10278.8422</v>
+        <v>-10278.2836</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0859</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.8083</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E9" s="1">
-        <v>5215.0366</v>
+        <v>5204.5315</v>
       </c>
       <c r="F9" s="1">
-        <v>744.3959</v>
+        <v>742.8652</v>
       </c>
       <c r="H9" s="1">
-        <v>72010.7905</v>
+        <v>71722.0874</v>
       </c>
       <c r="I9" s="1">
-        <v>1394.2111</v>
+        <v>1391.4179</v>
       </c>
       <c r="J9" s="1">
-        <v>73405.0016</v>
+        <v>73113.5053</v>
       </c>
       <c r="K9" s="1">
-        <v>70483.3928</v>
+        <v>70482.4249</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5154</v>
+        <v>13.5425</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10278.8422</v>
+        <v>-10278.2836</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0558</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.5636</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E10" s="1">
-        <v>5959.4326</v>
+        <v>5947.3968</v>
       </c>
       <c r="F10" s="1">
-        <v>757.8255</v>
+        <v>756.2677</v>
       </c>
       <c r="H10" s="1">
-        <v>80831.3596</v>
+        <v>80506.9362</v>
       </c>
       <c r="I10" s="1">
-        <v>1115.3688</v>
+        <v>1113.1343</v>
       </c>
       <c r="J10" s="1">
-        <v>81946.72840000001</v>
+        <v>81620.07060000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80762.235</v>
+        <v>80760.70849999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.552</v>
+        <v>13.5792</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2346.7665</v>
+        <v>2342.0392</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7932.0757</v>
+        <v>-7936.2444</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0175</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.1788</v>
       </c>
       <c r="C11" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D11" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E11" s="1">
-        <v>6717.2581</v>
+        <v>6703.6645</v>
       </c>
       <c r="F11" s="1">
-        <v>839.3099</v>
+        <v>837.4703</v>
       </c>
       <c r="H11" s="1">
-        <v>88525.40089999999</v>
+        <v>88169.2769</v>
       </c>
       <c r="I11" s="1">
-        <v>3183.2931</v>
+        <v>3176.8899</v>
       </c>
       <c r="J11" s="1">
-        <v>91708.694</v>
+        <v>91346.1669</v>
       </c>
       <c r="K11" s="1">
-        <v>91041.0772</v>
+        <v>91038.9921</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5533</v>
+        <v>13.5805</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11061.0977</v>
+        <v>-11058.9633</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0026</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>14.5668</v>
       </c>
       <c r="C12" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D12" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E12" s="1">
-        <v>7556.568</v>
+        <v>7541.1348</v>
       </c>
       <c r="F12" s="1">
-        <v>759.3361</v>
+        <v>757.6708</v>
       </c>
       <c r="H12" s="1">
-        <v>110075.015</v>
+        <v>109630.7559</v>
       </c>
       <c r="I12" s="1">
-        <v>2122.1954</v>
+        <v>2117.9266</v>
       </c>
       <c r="J12" s="1">
-        <v>112197.2104</v>
+        <v>111748.6825</v>
       </c>
       <c r="K12" s="1">
-        <v>102102.1749</v>
+        <v>102097.9554</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5117</v>
+        <v>13.5388</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11061.0977</v>
+        <v>-11058.9633</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1031</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.962</v>
       </c>
       <c r="C13" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D13" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E13" s="1">
-        <v>8315.904200000001</v>
+        <v>8298.805700000001</v>
       </c>
       <c r="F13" s="1">
-        <v>792.2287</v>
+        <v>790.4906</v>
       </c>
       <c r="H13" s="1">
-        <v>116106.6538</v>
+        <v>115636.3879</v>
       </c>
       <c r="I13" s="1">
-        <v>1061.0977</v>
+        <v>1058.9633</v>
       </c>
       <c r="J13" s="1">
-        <v>117167.7516</v>
+        <v>116695.3512</v>
       </c>
       <c r="K13" s="1">
-        <v>113163.2726</v>
+        <v>113156.9187</v>
       </c>
       <c r="L13" s="1">
-        <v>13.6081</v>
+        <v>13.6353</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3400.4556</v>
+        <v>3393.5107</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7660.6421</v>
+        <v>-7665.4526</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0412</v>
+        <v>-0.0415</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>12.2659</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E14" s="1">
-        <v>9108.132900000001</v>
+        <v>9089.296200000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9108.132900000001</v>
+        <v>-9089.296200000001</v>
       </c>
       <c r="H14" s="1">
-        <v>111719.4473</v>
+        <v>111265.711</v>
       </c>
       <c r="I14" s="1">
-        <v>3400.4556</v>
+        <v>3393.5107</v>
       </c>
       <c r="J14" s="1">
-        <v>115119.903</v>
+        <v>114659.2217</v>
       </c>
       <c r="K14" s="1">
-        <v>124224.3703</v>
+        <v>124215.882</v>
       </c>
       <c r="L14" s="1">
-        <v>13.6388</v>
+        <v>13.6662</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111719.4473</v>
+        <v>111265.711</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09470000000000001</v>
+        <v>-0.095</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>14.6663</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.701</v>
       </c>
       <c r="C3" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E3" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="F3" s="1">
-        <v>678.6164</v>
+        <v>678.8636</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9976.3403</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0024</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.8109</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E4" s="1">
-        <v>1360.4517</v>
+        <v>1359.3347</v>
       </c>
       <c r="F4" s="1">
-        <v>725.7789</v>
+        <v>722.6164</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18789.062</v>
+        <v>18736.1185</v>
       </c>
       <c r="I4" s="1">
-        <v>23.6597</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18812.7217</v>
+        <v>18736.1185</v>
       </c>
       <c r="K4" s="1">
-        <v>19976.3403</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6836</v>
+        <v>14.7131</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9410.008</v>
+        <v>-9387.575999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0605</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>13.9322</v>
       </c>
       <c r="C5" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D5" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E5" s="1">
-        <v>2086.2306</v>
+        <v>2081.9512</v>
       </c>
       <c r="F5" s="1">
-        <v>761.8073000000001</v>
+        <v>760.1968000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29065.7814</v>
+        <v>28948.0739</v>
       </c>
       <c r="I5" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="J5" s="1">
-        <v>29679.4331</v>
+        <v>29560.498</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.38</v>
+        <v>14.4096</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10613.6517</v>
+        <v>-10612.424</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0301</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.5846</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E6" s="1">
-        <v>2848.0379</v>
+        <v>2842.148</v>
       </c>
       <c r="F6" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>35841.4173</v>
+        <v>35695.6741</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35841.4173</v>
+        <v>35695.6741</v>
       </c>
       <c r="K6" s="1">
-        <v>40613.6517</v>
+        <v>40612.424</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2602</v>
+        <v>14.2893</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0977</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>12.2867</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E7" s="1">
-        <v>3642.6599</v>
+        <v>3635.182</v>
       </c>
       <c r="F7" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>44756.2689</v>
+        <v>44574.9656</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>44756.2689</v>
+        <v>44574.9656</v>
       </c>
       <c r="K7" s="1">
-        <v>50613.6517</v>
+        <v>50612.424</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8947</v>
+        <v>13.9229</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1281.617</v>
+        <v>1278.9666</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8718.383</v>
+        <v>-8721.0334</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0237</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.0645</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E8" s="1">
-        <v>4456.548</v>
+        <v>4447.4439</v>
       </c>
       <c r="F8" s="1">
-        <v>863.5322</v>
+        <v>861.6015</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58222.572</v>
+        <v>57987.553</v>
       </c>
       <c r="I8" s="1">
-        <v>1281.617</v>
+        <v>1278.9666</v>
       </c>
       <c r="J8" s="1">
-        <v>59504.189</v>
+        <v>59266.5196</v>
       </c>
       <c r="K8" s="1">
-        <v>60613.6517</v>
+        <v>60612.424</v>
       </c>
       <c r="L8" s="1">
-        <v>13.601</v>
+        <v>13.6286</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11281.617</v>
+        <v>-11278.9666</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0867</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.8083</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E9" s="1">
-        <v>5320.0803</v>
+        <v>5309.0454</v>
       </c>
       <c r="F9" s="1">
-        <v>473.5366</v>
+        <v>496.1749</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73461.2648</v>
+        <v>73162.36229999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>73461.2648</v>
+        <v>73162.36229999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71895.2687</v>
+        <v>71891.3907</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5139</v>
+        <v>13.5413</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-6538.7352</v>
+        <v>-6865.0762</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0569</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>13.5636</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E10" s="1">
-        <v>5793.6169</v>
+        <v>5805.2203</v>
       </c>
       <c r="F10" s="1">
-        <v>841.7896</v>
+        <v>843.4702</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>78582.30190000001</v>
+        <v>78582.3652</v>
       </c>
       <c r="I10" s="1">
-        <v>3461.2648</v>
+        <v>3134.9238</v>
       </c>
       <c r="J10" s="1">
-        <v>82043.5667</v>
+        <v>81717.289</v>
       </c>
       <c r="K10" s="1">
-        <v>78434.004</v>
+        <v>78756.4669</v>
       </c>
       <c r="L10" s="1">
-        <v>13.538</v>
+        <v>13.5665</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2394.0361</v>
+        <v>2389.0704</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9023.661899999999</v>
+        <v>-9074.364799999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.017</v>
+        <v>-0.0174</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.1788</v>
       </c>
       <c r="C11" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D11" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E11" s="1">
-        <v>6635.4065</v>
+        <v>6648.6906</v>
       </c>
       <c r="F11" s="1">
-        <v>952.5377</v>
+        <v>954.4845</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87446.69560000001</v>
+        <v>87446.23789999999</v>
       </c>
       <c r="I11" s="1">
-        <v>4437.6028</v>
+        <v>4060.559</v>
       </c>
       <c r="J11" s="1">
-        <v>91884.2984</v>
+        <v>91506.79700000001</v>
       </c>
       <c r="K11" s="1">
-        <v>89851.702</v>
+        <v>90219.90210000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5413</v>
+        <v>13.5696</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12553.3044</v>
+        <v>-12604.1588</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0017</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>14.5668</v>
       </c>
       <c r="C12" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D12" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E12" s="1">
-        <v>7587.9443</v>
+        <v>7603.1751</v>
       </c>
       <c r="F12" s="1">
-        <v>-36.526</v>
+        <v>-36.6412</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110532.0667</v>
+        <v>110532.6784</v>
       </c>
       <c r="I12" s="1">
-        <v>1884.2984</v>
+        <v>1456.4002</v>
       </c>
       <c r="J12" s="1">
-        <v>112416.3651</v>
+        <v>111989.0786</v>
       </c>
       <c r="K12" s="1">
-        <v>102405.0065</v>
+        <v>102824.0609</v>
       </c>
       <c r="L12" s="1">
-        <v>13.4958</v>
+        <v>13.5238</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>532.0667</v>
+        <v>532.6784</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1034</v>
+        <v>0.1033</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>13.962</v>
       </c>
       <c r="C13" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D13" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E13" s="1">
-        <v>7551.4183</v>
+        <v>7566.5339</v>
       </c>
       <c r="F13" s="1">
-        <v>1043.3389</v>
+        <v>1045.4324</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>105432.9022</v>
+        <v>105432.8401</v>
       </c>
       <c r="I13" s="1">
-        <v>12416.3651</v>
+        <v>11989.0786</v>
       </c>
       <c r="J13" s="1">
-        <v>117849.2673</v>
+        <v>117421.9188</v>
       </c>
       <c r="K13" s="1">
-        <v>101872.9398</v>
+        <v>102289.2463</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4906</v>
+        <v>13.5186</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3414.5749</v>
+        <v>3421.4288</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11152.5229</v>
+        <v>-11204.1708</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0373</v>
+        <v>-0.0374</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>12.2659</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E14" s="1">
-        <v>8594.7572</v>
+        <v>8611.9663</v>
       </c>
       <c r="F14" s="1">
-        <v>-8594.7572</v>
+        <v>-8611.9663</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>105422.4323</v>
+        <v>105422.5246</v>
       </c>
       <c r="I14" s="1">
-        <v>11263.8422</v>
+        <v>10784.9079</v>
       </c>
       <c r="J14" s="1">
-        <v>116686.2745</v>
+        <v>116207.4325</v>
       </c>
       <c r="K14" s="1">
-        <v>116440.0376</v>
+        <v>116914.8458</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5478</v>
+        <v>13.5759</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>105422.4323</v>
+        <v>105422.5246</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0873</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>14.6663</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.701</v>
       </c>
       <c r="C3" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E3" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="F3" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0024</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>13.8109</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E4" s="1">
-        <v>1362.0611</v>
+        <v>1359.3347</v>
       </c>
       <c r="F4" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18811.2891</v>
+        <v>18736.1185</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18811.2891</v>
+        <v>18736.1185</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6836</v>
+        <v>14.7131</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9386.3483</v>
+        <v>-9387.575999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0605</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>13.9322</v>
       </c>
       <c r="C5" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D5" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E5" s="1">
-        <v>2086.1268</v>
+        <v>2081.9512</v>
       </c>
       <c r="F5" s="1">
-        <v>761.8073000000001</v>
+        <v>760.1968000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29064.3363</v>
+        <v>28948.0739</v>
       </c>
       <c r="I5" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="J5" s="1">
-        <v>29677.988</v>
+        <v>29560.498</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.3807</v>
+        <v>14.4096</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10613.6517</v>
+        <v>-10612.424</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0301</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.5846</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E6" s="1">
-        <v>2847.9341</v>
+        <v>2842.148</v>
       </c>
       <c r="F6" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>35840.112</v>
+        <v>35695.6741</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35840.112</v>
+        <v>35695.6741</v>
       </c>
       <c r="K6" s="1">
-        <v>40613.6517</v>
+        <v>40612.424</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2607</v>
+        <v>14.2893</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0977</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>12.2867</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E7" s="1">
-        <v>3642.5561</v>
+        <v>3635.182</v>
       </c>
       <c r="F7" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>44754.9945</v>
+        <v>44574.9656</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>44754.9945</v>
+        <v>44574.9656</v>
       </c>
       <c r="K7" s="1">
-        <v>50613.6517</v>
+        <v>50612.424</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8951</v>
+        <v>13.9229</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1281.5704</v>
+        <v>1278.9666</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8718.429599999999</v>
+        <v>-8721.0334</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0237</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.0645</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E8" s="1">
-        <v>4456.4443</v>
+        <v>4447.4439</v>
       </c>
       <c r="F8" s="1">
-        <v>863.5287</v>
+        <v>861.6015</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58221.2169</v>
+        <v>57987.553</v>
       </c>
       <c r="I8" s="1">
-        <v>1281.5704</v>
+        <v>1278.9666</v>
       </c>
       <c r="J8" s="1">
-        <v>59502.7873</v>
+        <v>59266.5196</v>
       </c>
       <c r="K8" s="1">
-        <v>60613.6517</v>
+        <v>60612.424</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6013</v>
+        <v>13.6286</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11281.5704</v>
+        <v>-11278.9666</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0867</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.8083</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E9" s="1">
-        <v>5319.973</v>
+        <v>5309.0454</v>
       </c>
       <c r="F9" s="1">
-        <v>576.0524</v>
+        <v>598.7886</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73459.78320000001</v>
+        <v>73162.36229999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>73459.78320000001</v>
+        <v>73162.36229999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71895.2221</v>
+        <v>71891.3907</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5142</v>
+        <v>13.5413</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7954.3047</v>
+        <v>-8284.838599999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0569</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.5636</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E10" s="1">
-        <v>5896.0254</v>
+        <v>5907.834</v>
       </c>
       <c r="F10" s="1">
-        <v>873.6492</v>
+        <v>861.992</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79971.33040000001</v>
+        <v>79971.39479999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2045.6953</v>
+        <v>1715.1614</v>
       </c>
       <c r="J10" s="1">
-        <v>82017.0258</v>
+        <v>81686.55620000001</v>
       </c>
       <c r="K10" s="1">
-        <v>79849.5267</v>
+        <v>80176.2292</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5429</v>
+        <v>13.5712</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2393.9879</v>
+        <v>2389.0704</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9455.84</v>
+        <v>-9326.091</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0173</v>
+        <v>-0.0177</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.1788</v>
       </c>
       <c r="C11" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D11" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E11" s="1">
-        <v>6769.6746</v>
+        <v>6769.826</v>
       </c>
       <c r="F11" s="1">
-        <v>955.3112</v>
+        <v>938.1964</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89216.1875</v>
+        <v>89039.4599</v>
       </c>
       <c r="I11" s="1">
-        <v>2589.8553</v>
+        <v>2389.0704</v>
       </c>
       <c r="J11" s="1">
-        <v>91806.0428</v>
+        <v>91428.5303</v>
       </c>
       <c r="K11" s="1">
-        <v>91699.35460000001</v>
+        <v>91891.3907</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5456</v>
+        <v>13.5737</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12589.8553</v>
+        <v>-12389.0704</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0023</v>
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>14.5668</v>
       </c>
       <c r="C12" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D12" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E12" s="1">
-        <v>7724.9858</v>
+        <v>7708.0224</v>
       </c>
       <c r="F12" s="1">
-        <v>18.0783</v>
+        <v>50.5409</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112528.3231</v>
+        <v>112056.9169</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>112528.3231</v>
+        <v>112056.9169</v>
       </c>
       <c r="K12" s="1">
-        <v>104289.2099</v>
+        <v>104280.4611</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5002</v>
+        <v>13.5288</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-263.3423</v>
+        <v>-737.6950000000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1053</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>13.962</v>
       </c>
       <c r="C13" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D13" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E13" s="1">
-        <v>7743.064</v>
+        <v>7758.5633</v>
       </c>
       <c r="F13" s="1">
-        <v>1092.0329</v>
+        <v>1094.224</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>108108.6603</v>
+        <v>108108.5966</v>
       </c>
       <c r="I13" s="1">
-        <v>9736.6577</v>
+        <v>9262.305</v>
       </c>
       <c r="J13" s="1">
-        <v>117845.318</v>
+        <v>117370.9016</v>
       </c>
       <c r="K13" s="1">
-        <v>104552.5522</v>
+        <v>105018.1561</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5027</v>
+        <v>13.5358</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3476.2436</v>
+        <v>3468.6101</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11770.7199</v>
+        <v>-11839.5842</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0382</v>
+        <v>-0.0384</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>12.2659</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E14" s="1">
-        <v>8835.097</v>
+        <v>8852.7873</v>
       </c>
       <c r="F14" s="1">
-        <v>-8835.097</v>
+        <v>-8852.7873</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>108370.4158</v>
+        <v>108370.5106</v>
       </c>
       <c r="I14" s="1">
-        <v>7965.9379</v>
+        <v>7422.7208</v>
       </c>
       <c r="J14" s="1">
-        <v>116336.3536</v>
+        <v>115793.2315</v>
       </c>
       <c r="K14" s="1">
-        <v>119799.5157</v>
+        <v>120326.3503</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5595</v>
+        <v>13.5919</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>108370.4158</v>
+        <v>108370.5106</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09</v>
+        <v>-0.09089999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>14.6663</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.701</v>
       </c>
       <c r="C3" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E3" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="F3" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0024</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>13.8109</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E4" s="1">
-        <v>1362.0611</v>
+        <v>1359.3347</v>
       </c>
       <c r="F4" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18811.2891</v>
+        <v>18736.1185</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18811.2891</v>
+        <v>18736.1185</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6836</v>
+        <v>14.7131</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9386.3483</v>
+        <v>-9387.575999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0605</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>13.9322</v>
       </c>
       <c r="C5" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D5" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E5" s="1">
-        <v>2086.1268</v>
+        <v>2081.9512</v>
       </c>
       <c r="F5" s="1">
-        <v>761.8073000000001</v>
+        <v>760.1968000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29064.3363</v>
+        <v>28948.0739</v>
       </c>
       <c r="I5" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="J5" s="1">
-        <v>29677.988</v>
+        <v>29560.498</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.3807</v>
+        <v>14.4096</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10613.6517</v>
+        <v>-10612.424</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0301</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.5846</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E6" s="1">
-        <v>2847.9341</v>
+        <v>2842.148</v>
       </c>
       <c r="F6" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>35840.112</v>
+        <v>35695.6741</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35840.112</v>
+        <v>35695.6741</v>
       </c>
       <c r="K6" s="1">
-        <v>40613.6517</v>
+        <v>40612.424</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2607</v>
+        <v>14.2893</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0977</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>12.2867</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E7" s="1">
-        <v>3642.5561</v>
+        <v>3635.182</v>
       </c>
       <c r="F7" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>44754.9945</v>
+        <v>44574.9656</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>44754.9945</v>
+        <v>44574.9656</v>
       </c>
       <c r="K7" s="1">
-        <v>50613.6517</v>
+        <v>50612.424</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8951</v>
+        <v>13.9229</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1281.5704</v>
+        <v>1278.9666</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8718.429599999999</v>
+        <v>-8721.0334</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0237</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.0645</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E8" s="1">
-        <v>4456.4443</v>
+        <v>4447.4439</v>
       </c>
       <c r="F8" s="1">
-        <v>863.5287</v>
+        <v>861.6015</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58221.2169</v>
+        <v>57987.553</v>
       </c>
       <c r="I8" s="1">
-        <v>1281.5704</v>
+        <v>1278.9666</v>
       </c>
       <c r="J8" s="1">
-        <v>59502.7873</v>
+        <v>59266.5196</v>
       </c>
       <c r="K8" s="1">
-        <v>60613.6517</v>
+        <v>60612.424</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6013</v>
+        <v>13.6286</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11281.5704</v>
+        <v>-11278.9666</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0867</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.8083</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E9" s="1">
-        <v>5319.973</v>
+        <v>5309.0454</v>
       </c>
       <c r="F9" s="1">
-        <v>680.5271</v>
+        <v>703.4725</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73459.78320000001</v>
+        <v>73162.36229999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>73459.78320000001</v>
+        <v>73162.36229999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71895.2221</v>
+        <v>71891.3907</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5142</v>
+        <v>13.5413</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9396.922500000001</v>
+        <v>-9733.2454</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0569</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.5636</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E10" s="1">
-        <v>6000.5001</v>
+        <v>6012.5179</v>
       </c>
       <c r="F10" s="1">
-        <v>781.7303000000001</v>
+        <v>755.4194</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>81388.3833</v>
+        <v>81388.4488</v>
       </c>
       <c r="I10" s="1">
-        <v>603.0775</v>
+        <v>266.7546</v>
       </c>
       <c r="J10" s="1">
-        <v>81991.4608</v>
+        <v>81655.2034</v>
       </c>
       <c r="K10" s="1">
-        <v>81292.14449999999</v>
+        <v>81624.636</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5476</v>
+        <v>13.5758</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2393.9879</v>
+        <v>2389.0704</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8209.0897</v>
+        <v>-7877.6842</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0176</v>
+        <v>-0.0181</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.1788</v>
       </c>
       <c r="C11" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D11" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E11" s="1">
-        <v>6782.2304</v>
+        <v>6767.9374</v>
       </c>
       <c r="F11" s="1">
-        <v>940.4489</v>
+        <v>938.1964</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>89381.65850000001</v>
+        <v>89014.6194</v>
       </c>
       <c r="I11" s="1">
-        <v>2393.9879</v>
+        <v>2389.0704</v>
       </c>
       <c r="J11" s="1">
-        <v>91775.6464</v>
+        <v>91403.68979999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91895.2221</v>
+        <v>91891.3907</v>
       </c>
       <c r="L11" s="1">
-        <v>13.5494</v>
+        <v>13.5775</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12393.9879</v>
+        <v>-12389.0704</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0023</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>14.5668</v>
       </c>
       <c r="C12" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D12" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E12" s="1">
-        <v>7722.6793</v>
+        <v>7706.1337</v>
       </c>
       <c r="F12" s="1">
-        <v>217.8668</v>
+        <v>250.3069</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>112494.7253</v>
+        <v>112029.4601</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>112494.7253</v>
+        <v>112029.4601</v>
       </c>
       <c r="K12" s="1">
-        <v>104289.2099</v>
+        <v>104280.4611</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5043</v>
+        <v>13.5321</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-3173.6214</v>
+        <v>-3653.4795</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1053</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>13.962</v>
       </c>
       <c r="C13" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D13" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E13" s="1">
-        <v>7940.5461</v>
+        <v>7956.4406</v>
       </c>
       <c r="F13" s="1">
-        <v>1143.0401</v>
+        <v>1145.3335</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>110865.9044</v>
+        <v>110865.8391</v>
       </c>
       <c r="I13" s="1">
-        <v>6826.3786</v>
+        <v>6346.5205</v>
       </c>
       <c r="J13" s="1">
-        <v>117692.283</v>
+        <v>117212.3596</v>
       </c>
       <c r="K13" s="1">
-        <v>107462.8313</v>
+        <v>107933.9406</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5334</v>
+        <v>13.5656</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3475.2057</v>
+        <v>3467.7602</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12483.92</v>
+        <v>-12555.455</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0392</v>
+        <v>-0.0395</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>12.2659</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E14" s="1">
-        <v>9083.5862</v>
+        <v>9101.774100000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9083.5862</v>
+        <v>-9101.774100000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>111418.3596</v>
+        <v>111418.4572</v>
       </c>
       <c r="I14" s="1">
-        <v>4342.4586</v>
+        <v>3791.0655</v>
       </c>
       <c r="J14" s="1">
-        <v>115760.8182</v>
+        <v>115209.5227</v>
       </c>
       <c r="K14" s="1">
-        <v>123421.957</v>
+        <v>123957.1558</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5874</v>
+        <v>13.619</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>111418.3596</v>
+        <v>111418.4572</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0934</v>
+        <v>-0.0944</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>14.6663</v>
       </c>
       <c r="C2" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D2" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.701</v>
       </c>
       <c r="C3" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D3" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E3" s="1">
-        <v>681.8352</v>
+        <v>680.4712</v>
       </c>
       <c r="F3" s="1">
-        <v>680.2258</v>
+        <v>678.8636</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10023.6597</v>
+        <v>9983.6006</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0024</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.8109</v>
       </c>
       <c r="C4" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D4" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E4" s="1">
-        <v>1362.0611</v>
+        <v>1359.3347</v>
       </c>
       <c r="F4" s="1">
-        <v>724.0658</v>
+        <v>722.6164</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18811.2891</v>
+        <v>18736.1185</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18811.2891</v>
+        <v>18736.1185</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6836</v>
+        <v>14.7131</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9386.3483</v>
+        <v>-9387.575999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0605</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>13.9322</v>
       </c>
       <c r="C5" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D5" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E5" s="1">
-        <v>2086.1268</v>
+        <v>2081.9512</v>
       </c>
       <c r="F5" s="1">
-        <v>761.8073000000001</v>
+        <v>760.1968000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29064.3363</v>
+        <v>28948.0739</v>
       </c>
       <c r="I5" s="1">
-        <v>613.6517</v>
+        <v>612.424</v>
       </c>
       <c r="J5" s="1">
-        <v>29677.988</v>
+        <v>29560.498</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.3807</v>
+        <v>14.4096</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10613.6517</v>
+        <v>-10612.424</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0301</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.5846</v>
       </c>
       <c r="C6" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D6" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E6" s="1">
-        <v>2847.9341</v>
+        <v>2842.148</v>
       </c>
       <c r="F6" s="1">
-        <v>794.622</v>
+        <v>793.034</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>35840.112</v>
+        <v>35695.6741</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35840.112</v>
+        <v>35695.6741</v>
       </c>
       <c r="K6" s="1">
-        <v>40613.6517</v>
+        <v>40612.424</v>
       </c>
       <c r="L6" s="1">
-        <v>14.2607</v>
+        <v>14.2893</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.09669999999999999</v>
+        <v>-0.0977</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>12.2867</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E7" s="1">
-        <v>3642.5561</v>
+        <v>3635.182</v>
       </c>
       <c r="F7" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>44754.9945</v>
+        <v>44574.9656</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>44754.9945</v>
+        <v>44574.9656</v>
       </c>
       <c r="K7" s="1">
-        <v>50613.6517</v>
+        <v>50612.424</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8951</v>
+        <v>13.9229</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1281.5704</v>
+        <v>1278.9666</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8718.429599999999</v>
+        <v>-8721.0334</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0237</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.0645</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E8" s="1">
-        <v>4456.4443</v>
+        <v>4447.4439</v>
       </c>
       <c r="F8" s="1">
-        <v>863.5287</v>
+        <v>861.6015</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58221.2169</v>
+        <v>57987.553</v>
       </c>
       <c r="I8" s="1">
-        <v>1281.5704</v>
+        <v>1278.9666</v>
       </c>
       <c r="J8" s="1">
-        <v>59502.7873</v>
+        <v>59266.5196</v>
       </c>
       <c r="K8" s="1">
-        <v>60613.6517</v>
+        <v>60612.424</v>
       </c>
       <c r="L8" s="1">
-        <v>13.6013</v>
+        <v>13.6286</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11281.5704</v>
+        <v>-11278.9666</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0867</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.8083</v>
       </c>
       <c r="C9" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D9" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E9" s="1">
-        <v>5319.973</v>
+        <v>5309.0454</v>
       </c>
       <c r="F9" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73459.78320000001</v>
+        <v>73162.36229999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>73459.78320000001</v>
+        <v>73162.36229999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71895.2221</v>
+        <v>71891.3907</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5142</v>
+        <v>13.5413</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0569</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>13.5636</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D10" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E10" s="1">
-        <v>6044.1751</v>
+        <v>6031.7977</v>
       </c>
       <c r="F10" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>81980.7735</v>
+        <v>81649.42909999999</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>81980.7735</v>
+        <v>81649.42909999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81895.2221</v>
+        <v>81891.3907</v>
       </c>
       <c r="L10" s="1">
-        <v>13.5494</v>
+        <v>13.5766</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2393.9879</v>
+        <v>2389.0704</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7606.0121</v>
+        <v>-7610.9296</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0177</v>
+        <v>-0.0182</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.1788</v>
       </c>
       <c r="C11" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D11" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E11" s="1">
-        <v>6781.4425</v>
+        <v>6767.5895</v>
       </c>
       <c r="F11" s="1">
-        <v>940.4489</v>
+        <v>938.1964</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>89371.2745</v>
+        <v>89010.0445</v>
       </c>
       <c r="I11" s="1">
-        <v>2393.9879</v>
+        <v>2389.0704</v>
       </c>
       <c r="J11" s="1">
-        <v>91765.2623</v>
+        <v>91399.1149</v>
       </c>
       <c r="K11" s="1">
-        <v>91895.2221</v>
+        <v>91891.3907</v>
       </c>
       <c r="L11" s="1">
-        <v>13.551</v>
+        <v>13.5782</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12393.9879</v>
+        <v>-12389.0704</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0023</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>14.5668</v>
       </c>
       <c r="C12" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D12" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E12" s="1">
-        <v>7721.8914</v>
+        <v>7705.7859</v>
       </c>
       <c r="F12" s="1">
-        <v>422.1502</v>
+        <v>454.5576</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>112483.2476</v>
+        <v>112024.4033</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>112483.2476</v>
+        <v>112024.4033</v>
       </c>
       <c r="K12" s="1">
-        <v>104289.2099</v>
+        <v>104280.4611</v>
       </c>
       <c r="L12" s="1">
-        <v>13.5057</v>
+        <v>13.5327</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6149.3774</v>
+        <v>-6634.7223</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.1053</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>13.962</v>
       </c>
       <c r="C13" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D13" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E13" s="1">
-        <v>8144.0416</v>
+        <v>8160.3434</v>
       </c>
       <c r="F13" s="1">
-        <v>992.0228</v>
+        <v>955.3451</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113707.1086</v>
+        <v>113707.0416</v>
       </c>
       <c r="I13" s="1">
-        <v>3850.6226</v>
+        <v>3365.2777</v>
       </c>
       <c r="J13" s="1">
-        <v>117557.7312</v>
+        <v>117072.3193</v>
       </c>
       <c r="K13" s="1">
-        <v>110438.5873</v>
+        <v>110915.1834</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5607</v>
+        <v>13.592</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3474.8511</v>
+        <v>3467.6036</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10375.7715</v>
+        <v>-9897.674000000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0402</v>
+        <v>-0.0406</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>12.2659</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E14" s="1">
-        <v>9136.064399999999</v>
+        <v>9115.6885</v>
       </c>
       <c r="F14" s="1">
-        <v>-9136.064399999999</v>
+        <v>-9115.6885</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>112062.0524</v>
+        <v>111588.7895</v>
       </c>
       <c r="I14" s="1">
-        <v>3474.8511</v>
+        <v>3467.6036</v>
       </c>
       <c r="J14" s="1">
-        <v>115536.9035</v>
+        <v>115056.3932</v>
       </c>
       <c r="K14" s="1">
-        <v>124289.2099</v>
+        <v>124280.4611</v>
       </c>
       <c r="L14" s="1">
-        <v>13.6042</v>
+        <v>13.6337</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112062.0524</v>
+        <v>111588.7895</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09420000000000001</v>
+        <v>-0.0946</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6388</v>
+        <v>13.6662</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5478</v>
+        <v>13.5759</v>
       </c>
       <c r="E3" s="1">
-        <v>13.5595</v>
+        <v>13.5919</v>
       </c>
       <c r="F3" s="1">
-        <v>13.5874</v>
+        <v>13.619</v>
       </c>
       <c r="G3" s="1">
-        <v>13.6042</v>
+        <v>13.6337</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.1533</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0581</v>
+        <v>-0.07049999999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0447</v>
+        <v>-0.0572</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0474</v>
+        <v>-0.0604</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0521</v>
+        <v>-0.0653</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.054</v>
+        <v>-0.0667</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2183</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2146</v>
+        <v>0.2147</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2123</v>
+        <v>0.2128</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2145</v>
+        <v>0.2148</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2161</v>
+        <v>0.2164</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2166</v>
+        <v>0.2167</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.7955</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3654</v>
+        <v>-0.4231</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3065</v>
+        <v>-0.3646</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.3155</v>
+        <v>-0.376</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.3352</v>
+        <v>-0.3956</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.3434</v>
+        <v>-0.4014</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0757</v>
+        <v>-0.0828</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.053</v>
+        <v>-0.0604</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0577</v>
+        <v>-0.066</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0659</v>
+        <v>-0.0743</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.06900000000000001</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7624.8259</v>
+        <v>7609.3927</v>
       </c>
       <c r="D8" s="1">
-        <v>7703.8798</v>
+        <v>7701.8899</v>
       </c>
       <c r="E8" s="1">
-        <v>7765.4535</v>
+        <v>7749.0712</v>
       </c>
       <c r="F8" s="1">
-        <v>7764.4156</v>
+        <v>7748.2213</v>
       </c>
       <c r="G8" s="1">
-        <v>7764.061</v>
+        <v>7748.0647</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P19_KFSDIV.xlsx
+++ b/output/1Y_P19_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -2057,10 +2060,10 @@
         <v>118652.3912</v>
       </c>
       <c r="K13" s="1">
-        <v>102270.0286</v>
+        <v>102272.1647</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5161</v>
+        <v>13.5164</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -2110,10 +2113,10 @@
         <v>117421.4164</v>
       </c>
       <c r="K14" s="1">
-        <v>116895.6281</v>
+        <v>116897.7643</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5736</v>
+        <v>13.5739</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -2825,10 +2828,10 @@
         <v>118732.99</v>
       </c>
       <c r="K13" s="1">
-        <v>104912.0113</v>
+        <v>104913.0598</v>
       </c>
       <c r="L13" s="1">
-        <v>13.5221</v>
+        <v>13.5222</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -2878,10 +2881,10 @@
         <v>117178.0632</v>
       </c>
       <c r="K14" s="1">
-        <v>120220.2056</v>
+        <v>120221.2541</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5799</v>
+        <v>13.58</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6663</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.701</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.8109</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.9322</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5846</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2867</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.0645</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8083</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.5636</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.1788</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.5668</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.962</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.2659</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4493,10 +4496,10 @@
         <v>13.6658</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5736</v>
+        <v>13.5739</v>
       </c>
       <c r="E3" s="1">
-        <v>13.5799</v>
+        <v>13.58</v>
       </c>
       <c r="F3" s="1">
         <v>13.6054</v>
@@ -4612,6 +4615,26 @@
       </c>
       <c r="G8" s="1">
         <v>9298.030500000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9258</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0045</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9747</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9428</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9276</v>
       </c>
     </row>
   </sheetData>
